--- a/biology/Zoologie/Conus_timorensis/Conus_timorensis.xlsx
+++ b/biology/Zoologie/Conus_timorensis/Conus_timorensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus timorensis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de la coquille varie entre 13 mm et 50 mm. La coquille lisse est striée vers la base. Sa couleur est blanc rosé, avec des nuages rose orangé et des séries de taches tournantes distantes[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la coquille varie entre 13 mm et 50 mm. La coquille lisse est striée vers la base. Sa couleur est blanc rosé, avec des nuages rose orangé et des séries de taches tournantes distantes. 
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'Océan Indien au large des Mascareignes ; également au large de Timor, Florès et Nouvelle Guinée.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente au large des côtes de l'île Maurice, de Saint Brandon, de Timor, de l'île Tagala et de la Papouasie-Nouvelle-Guinée. Cette espèce est très commune dans les eaux peu profondes. Il n'y a pas de menaces majeures connues pour cette espèce. Elle est également protégée dans certaines parties de son aire de répartition. Elle est classée dans la catégorie " préoccupation mineure "[2].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente au large des côtes de l'île Maurice, de Saint Brandon, de Timor, de l'île Tagala et de la Papouasie-Nouvelle-Guinée. Cette espèce est très commune dans les eaux peu profondes. Il n'y a pas de menaces majeures connues pour cette espèce. Elle est également protégée dans certaines parties de son aire de répartition. Elle est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_timorensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_timorensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus timorensis a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798)[3],[4].
-Synonymes
-Conus (Textilia) timorensis Hwass, 1792 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus timorensis a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_timorensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_timorensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Textilia) timorensis Hwass, 1792 · appellation alternative
 Conus euschemon Tomlin, 1937 · non accepté
 Conus gracilis W. Wood, 1828 · non accepté
 Conus vespertinus G. B. Sowerby I, 1825 · non accepté
